--- a/hyperlinks.xlsx
+++ b/hyperlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmarvingarbuszus/Source/openxlsx-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C89E811-A281-3544-962D-114545F9427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468846CD-D9F3-CA4B-83D4-B1883975EF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{F4DFA242-AE62-AE45-8C95-9FEDA7D33F73}"/>
   </bookViews>
@@ -116,10 +116,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -461,6 +460,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -483,7 +487,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -509,12 +513,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -528,7 +532,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -542,7 +546,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
